--- a/NEW HR/RODRIGUEZ, ARNEL.xlsx
+++ b/NEW HR/RODRIGUEZ, ARNEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>3/2,3/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/8,9/2023</t>
+  </si>
+  <si>
+    <t>3/18-20/2023</t>
   </si>
 </sst>
 </file>
@@ -918,7 +927,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,7 +970,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1034,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1094,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,7 +1160,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1223,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1321,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1380,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1445,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1488,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1563,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1749,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1815,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1873,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1939,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1995,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2070,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2113,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2179,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2235,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,9 +2681,9 @@
   <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2853,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.75</v>
+        <v>45</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2854,7 +2863,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.75</v>
+        <v>68</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4110,26 +4119,40 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="14"/>
+      <c r="A71" s="42">
+        <v>44986</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="41"/>
       <c r="E71" s="10"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="41"/>
+      <c r="G71" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="41">
+        <v>2</v>
+      </c>
       <c r="I71" s="10"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
-      <c r="B72" s="21"/>
+      <c r="B72" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C72" s="14"/>
-      <c r="D72" s="41"/>
+      <c r="D72" s="41">
+        <v>3</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="21"/>
       <c r="G72" s="14" t="str">
@@ -4139,7 +4162,9 @@
       <c r="H72" s="41"/>
       <c r="I72" s="10"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
+      <c r="K72" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>

--- a/NEW HR/RODRIGUEZ, ARNEL.xlsx
+++ b/NEW HR/RODRIGUEZ, ARNEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>3/18-20/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>9/28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,7 +976,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1040,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1100,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1166,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1229,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1327,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1386,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1451,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1494,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1569,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1755,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1821,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1879,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1945,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2001,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2076,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2119,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2185,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2241,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,9 +2687,9 @@
   <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2859,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45</v>
+        <v>50.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2863,7 +2869,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68</v>
+        <v>74.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4145,19 +4151,23 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="42">
+        <v>45017</v>
+      </c>
       <c r="B72" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="41">
         <v>3</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="41"/>
       <c r="I72" s="10"/>
@@ -4167,15 +4177,19 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="42">
+        <v>45047</v>
+      </c>
       <c r="B73" s="21"/>
-      <c r="C73" s="14"/>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="41"/>
       <c r="E73" s="10"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="41"/>
       <c r="I73" s="10"/>
@@ -4183,15 +4197,19 @@
       <c r="K73" s="21"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="42">
+        <v>45078</v>
+      </c>
       <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="41"/>
       <c r="E74" s="10"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="41"/>
       <c r="I74" s="10"/>
@@ -4199,15 +4217,19 @@
       <c r="K74" s="21"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="42">
+        <v>45108</v>
+      </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
+      <c r="C75" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="41"/>
       <c r="E75" s="10"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="41"/>
       <c r="I75" s="10"/>
@@ -4215,39 +4237,61 @@
       <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
+      <c r="A76" s="42">
+        <v>45139</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="10"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="41"/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="41">
+        <v>1</v>
+      </c>
       <c r="I76" s="10"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="53">
+        <v>45140</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="41"/>
+      <c r="A77" s="42">
+        <v>45170</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="41">
+        <v>2</v>
+      </c>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="10"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="42">
+        <v>45200</v>
+      </c>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
       <c r="D78" s="41"/>
@@ -4263,7 +4307,9 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>45231</v>
+      </c>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
       <c r="D79" s="41"/>
@@ -4279,7 +4325,9 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="42">
+        <v>45261</v>
+      </c>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
       <c r="D80" s="41"/>
